--- a/classfiers/bloated/elm/bloated_elm_lin_results.xlsx
+++ b/classfiers/bloated/elm/bloated_elm_lin_results.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9457399103139014</v>
+        <v>0.9684908789386401</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9726457399103139</v>
+        <v>0.9467980295566502</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9959677419354839</v>
+        <v>0.9358333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6923076923076924</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9953488372093022</v>
+        <v>0.9664502164502166</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8667215137803372</v>
+        <v>0.9986431478968792</v>
       </c>
     </row>
     <row r="7">
@@ -555,13 +555,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5492914438502674</v>
+        <v>0.5487012987012987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6995250305250306</v>
+        <v>0.7015204678362573</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9552847486298678</v>
+        <v>0.9632431212351438</v>
       </c>
     </row>
   </sheetData>
